--- a/Packages/cn.etetet.excel/Luban/Config/Base/__tables__.xlsx
+++ b/Packages/cn.etetet.excel/Luban/Config/Base/__tables__.xlsx
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1" fullPrecision="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -656,4 +656,9 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=EPPlusLicense.txt>This workbook was created with the EPPlus library, licensed to ETET under the Polyform Noncommercial license, see https://polyformproject.org/licenses/noncommercial/1.0.0
+For more information about EPPlus, see https://epplussoftware.com/
+
 </file>
--- a/Packages/cn.etetet.excel/Luban/Config/Base/__tables__.xlsx
+++ b/Packages/cn.etetet.excel/Luban/Config/Base/__tables__.xlsx
@@ -119,7 +119,7 @@
     <t>Text</t>
   </si>
   <si>
-    <t>../../../../cn.etetet.quest/Luban/Config/Datas/Text.xlsx,../../../../cn.etetet.wow/Luban/Config/Datas/Text.xlsx,../../../../cn.etetet.spell/Luban/Config/Datas/Text.xlsx</t>
+    <t>../../../../cn.etetet.quest/Luban/Config/Datas/Text.xlsx,../../../../cn.etetet.statesync/Luban/Config/Datas/Text.xlsx,../../../../cn.etetet.spell/Luban/Config/Datas/Text.xlsx</t>
   </si>
 </sst>
 </file>
